--- a/history.xlsx
+++ b/history.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29340" windowHeight="14760"/>
+    <workbookView windowWidth="29340" windowHeight="13500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12507,6 +12507,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>康熙十七年十月三十日（1678年12月13日）寅时，清世宗爱新觉罗·胤</t>
     </r>
     <r>
@@ -12719,6 +12725,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>康熙六十一年十一月十三日（1722年12月20日），康熙帝玄烨崩于北京畅春园清溪书屋，终年69岁。在位61年零10月。
 康熙六十一年（1722）十一月二十日，胤</t>
     </r>
@@ -12792,6 +12804,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>雍正十三年（1735年）农历八月二十三日，清世宗爱新觉罗·胤</t>
     </r>
     <r>
@@ -13009,6 +13027,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>乾隆六十年（1795年），乾隆帝禅位于第十五子</t>
     </r>
     <r>
@@ -13091,6 +13115,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>左宗棠，1812年11月10日（清嘉庆十七年十月初七）生于湖南省长沙府湘阴县左家</t>
     </r>
     <r>
@@ -13361,6 +13391,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>爱新觉罗·载</t>
     </r>
     <r>
@@ -13426,7 +13462,7 @@
     <t>1878年</t>
   </si>
   <si>
-    <t>1878年，12岁的孙中山随母赴檀香山（火奴鲁鲁）。</t>
+    <t>1878年，12岁的孙中山随母赴檀香山（火奴鲁鲁，美国夏威夷州的首府）。</t>
   </si>
   <si>
     <t>1879年</t>
@@ -14146,9 +14182,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -14179,6 +14215,81 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -14188,7 +14299,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -14202,61 +14313,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -14270,29 +14329,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -14301,18 +14337,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -14343,13 +14379,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14361,151 +14433,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14524,6 +14458,108 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14550,7 +14586,31 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -14566,6 +14626,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -14599,164 +14670,129 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -14765,19 +14801,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -15140,11 +15176,11 @@
   <dimension ref="A1:O4123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B3960" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B1907" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O3900" sqref="O3900"/>
+      <selection pane="bottomRight" activeCell="O1881" sqref="O1881"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="13.2"/>
@@ -77543,7 +77579,7 @@
         <v>3609</v>
       </c>
     </row>
-    <row r="4024" ht="40" spans="1:15">
+    <row r="4024" ht="27" spans="1:15">
       <c r="A4024" s="3" t="s">
         <v>4362</v>
       </c>
